--- a/base.xlsx
+++ b/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="sbornik" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="179021" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -450,8 +450,8 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H56" sqref="H55:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -460,7 +460,7 @@
     <col width="9.140625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
     <col width="42.5703125" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="8.5703125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="8.28515625" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="9.5703125" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,7 +486,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>id genre</t>
+          <t>id_genre</t>
         </is>
       </c>
     </row>
@@ -502,8 +502,10 @@
           <t>Michael Jackson</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -521,8 +523,10 @@
           <t>Madonna</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -540,8 +544,10 @@
           <t>The Beatles</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -559,8 +565,10 @@
           <t>Lady Gaga</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -578,8 +586,10 @@
           <t>Britney Spears</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -597,8 +607,10 @@
           <t>Katy Perry</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -616,8 +628,10 @@
           <t>Rihanna</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>1</v>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -635,8 +649,10 @@
           <t>Christina Aguilera</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -654,8 +670,10 @@
           <t>Людвиг ван Бетховен</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>9</v>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E10" s="1" t="n">
         <v>9</v>
@@ -673,8 +691,10 @@
           <t>Иоганн Себастьян Бах</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>9</v>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E11" s="1" t="n">
         <v>9</v>
@@ -692,8 +712,10 @@
           <t>Вольфганг Амадей Моцарт</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>9</v>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E12" s="1" t="n">
         <v>9</v>
@@ -711,8 +733,10 @@
           <t>Рихард Вагнер</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>9</v>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E13" s="1" t="n">
         <v>9</v>
@@ -730,8 +754,10 @@
           <t>Пётр Ильич Чайковский</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>9</v>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E14" s="1" t="n">
         <v>9</v>
@@ -749,8 +775,10 @@
           <t>Джузеппе Верди</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>9</v>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E15" s="1" t="n">
         <v>9</v>
@@ -768,8 +796,10 @@
           <t>Игорь Федорович Стравинский</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>9</v>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E16" s="1" t="n">
         <v>9</v>
@@ -787,8 +817,10 @@
           <t>Иоганн Штраус</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
       </c>
       <c r="E17" s="1" t="n">
         <v>9</v>
@@ -806,8 +838,10 @@
           <t>Red Hot Chili Peppers</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>17</v>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E18" s="1" t="n">
         <v>17</v>
@@ -825,8 +859,10 @@
           <t>The Beatles</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>17</v>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E19" s="1" t="n">
         <v>17</v>
@@ -844,8 +880,10 @@
           <t>Muse</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>17</v>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E20" s="1" t="n">
         <v>17</v>
@@ -863,8 +901,10 @@
           <t>Coldplay</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>17</v>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E21" s="1" t="n">
         <v>17</v>
@@ -882,8 +922,10 @@
           <t>Nirvana</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>17</v>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E22" s="1" t="n">
         <v>17</v>
@@ -901,8 +943,10 @@
           <t>Radiohead</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>17</v>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E23" s="1" t="n">
         <v>17</v>
@@ -920,8 +964,10 @@
           <t>Foo Fighters</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>17</v>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E24" s="1" t="n">
         <v>17</v>
@@ -939,8 +985,10 @@
           <t>U2</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>17</v>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
       </c>
       <c r="E25" s="1" t="n">
         <v>17</v>
@@ -958,8 +1006,10 @@
           <t>Би Би Кинг</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>25</v>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E26" s="1" t="n">
         <v>25</v>
@@ -977,8 +1027,10 @@
           <t>Памятник Би Би Кингу в Монтре, Швейцария</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>25</v>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E27" s="1" t="n">
         <v>25</v>
@@ -996,8 +1048,10 @@
           <t>Роберт Лерой Джонсон</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>25</v>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E28" s="1" t="n">
         <v>25</v>
@@ -1015,8 +1069,10 @@
           <t>Мадди Уотерс</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>25</v>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E29" s="1" t="n">
         <v>25</v>
@@ -1034,8 +1090,10 @@
           <t>Гэри Мур</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>25</v>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E30" s="1" t="n">
         <v>25</v>
@@ -1053,8 +1111,10 @@
           <t>Эрик Клэптон</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>25</v>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E31" s="1" t="n">
         <v>25</v>
@@ -1072,8 +1132,10 @@
           <t>Сонни Бой Уильямсон I</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>25</v>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E32" s="1" t="n">
         <v>25</v>
@@ -1091,8 +1153,10 @@
           <t>Сонни Бой Уильямсон II</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>25</v>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>electro</t>
+        </is>
       </c>
       <c r="E33" s="1" t="n">
         <v>25</v>
@@ -1110,8 +1174,10 @@
           <t>Михайлов Стас</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>33</v>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E34" s="1" t="n">
         <v>33</v>
@@ -1129,8 +1195,10 @@
           <t>Ваенга Елена</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>33</v>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E35" s="1" t="n">
         <v>33</v>
@@ -1148,8 +1216,10 @@
           <t>Бутырка группа</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>33</v>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E36" s="1" t="n">
         <v>33</v>
@@ -1167,8 +1237,10 @@
           <t>Кучин Иван</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>33</v>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E37" s="1" t="n">
         <v>33</v>
@@ -1186,8 +1258,10 @@
           <t>Полотно Анатолий группа "ЛоцМэн"</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>33</v>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E38" s="1" t="n">
         <v>33</v>
@@ -1205,8 +1279,10 @@
           <t>Шуфутинский Михаил</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>33</v>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E39" s="1" t="n">
         <v>33</v>
@@ -1224,8 +1300,10 @@
           <t>Портной Леонид</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>33</v>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E40" s="1" t="n">
         <v>33</v>
@@ -1243,8 +1321,10 @@
           <t>Бандера Андрей</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>33</v>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>shanson</t>
+        </is>
       </c>
       <c r="E41" s="1" t="n">
         <v>33</v>
@@ -1262,8 +1342,10 @@
           <t>Daft Punk</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>41</v>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E42" s="1" t="n">
         <v>41</v>
@@ -1281,8 +1363,10 @@
           <t>The Prodigy</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>41</v>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E43" s="1" t="n">
         <v>41</v>
@@ -1300,8 +1384,10 @@
           <t>Depeche Mode</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>41</v>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E44" s="1" t="n">
         <v>41</v>
@@ -1319,8 +1405,10 @@
           <t>Massive Attack</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>41</v>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E45" s="1" t="n">
         <v>41</v>
@@ -1338,8 +1426,10 @@
           <t>Bork</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>41</v>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E46" s="1" t="n">
         <v>41</v>
@@ -1357,8 +1447,10 @@
           <t>Moby</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>41</v>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E47" s="1" t="n">
         <v>41</v>
@@ -1376,8 +1468,10 @@
           <t>Radiohead</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>41</v>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E48" s="1" t="n">
         <v>41</v>
@@ -1395,8 +1489,10 @@
           <t>The Chemical Brothers</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>41</v>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
       </c>
       <c r="E49" s="1" t="n">
         <v>41</v>
@@ -1414,8 +1510,10 @@
           <t>Eminem</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>49</v>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E50" s="1" t="n">
         <v>49</v>
@@ -1433,8 +1531,10 @@
           <t>2Pac</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>49</v>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E51" s="1" t="n">
         <v>49</v>
@@ -1452,8 +1552,10 @@
           <t>Eazy-E</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>49</v>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E52" s="1" t="n">
         <v>49</v>
@@ -1471,8 +1573,10 @@
           <t>Айс Кьюб</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>49</v>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E53" s="1" t="n">
         <v>49</v>
@@ -1490,8 +1594,10 @@
           <t>LL Cool J</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>49</v>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E54" s="1" t="n">
         <v>49</v>
@@ -1509,8 +1615,10 @@
           <t>Пи Дидди</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>49</v>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E55" s="1" t="n">
         <v>49</v>
@@ -1528,8 +1636,10 @@
           <t>Уилл Смит</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>49</v>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E56" s="1" t="n">
         <v>49</v>
@@ -1547,8 +1657,10 @@
           <t>DMX</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>49</v>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>rep</t>
+        </is>
       </c>
       <c r="E57" s="1" t="n">
         <v>49</v>
@@ -20649,7 +20761,7 @@
   </sheetPr>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="J141" sqref="J140:J141"/>
     </sheetView>
   </sheetViews>
@@ -20707,7 +20819,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -20731,7 +20843,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -20755,7 +20867,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -20779,7 +20891,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -20803,7 +20915,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -20827,7 +20939,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -20851,7 +20963,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -20875,7 +20987,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -20899,7 +21011,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -20923,7 +21035,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -20947,7 +21059,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -20971,7 +21083,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -20995,7 +21107,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -21019,7 +21131,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -21043,7 +21155,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -21067,7 +21179,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -21091,7 +21203,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -21115,7 +21227,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -21139,7 +21251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -21163,7 +21275,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -21187,7 +21299,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -21211,7 +21323,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -21235,7 +21347,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -21259,7 +21371,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -21283,7 +21395,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -21307,7 +21419,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -21331,7 +21443,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -21355,7 +21467,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -21379,7 +21491,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -21403,7 +21515,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -21427,7 +21539,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -21451,7 +21563,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -21475,7 +21587,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -21499,7 +21611,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -21523,7 +21635,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -21547,7 +21659,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -21571,7 +21683,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -21595,7 +21707,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -21619,7 +21731,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -21643,7 +21755,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -21667,7 +21779,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -21691,7 +21803,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -21715,7 +21827,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -21739,7 +21851,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -21763,7 +21875,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -21787,7 +21899,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -21811,7 +21923,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -21835,7 +21947,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -21859,7 +21971,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -21883,7 +21995,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -21907,7 +22019,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -21931,7 +22043,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -21955,7 +22067,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -21979,7 +22091,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -22003,7 +22115,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -22027,7 +22139,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -22051,7 +22163,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -22075,7 +22187,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -22099,7 +22211,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -22123,7 +22235,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -22147,7 +22259,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -22171,7 +22283,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -22195,7 +22307,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -22219,7 +22331,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -22243,7 +22355,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -22267,7 +22379,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -22291,7 +22403,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -22315,7 +22427,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -22339,7 +22451,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -22363,7 +22475,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -22387,7 +22499,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -22411,7 +22523,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -22435,7 +22547,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -22459,7 +22571,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -22483,7 +22595,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -22507,7 +22619,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -22531,7 +22643,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -22555,7 +22667,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -22579,7 +22691,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -22603,7 +22715,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -22627,7 +22739,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -22651,7 +22763,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -22675,7 +22787,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -22699,7 +22811,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -22723,7 +22835,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -22747,7 +22859,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -22771,7 +22883,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -22795,7 +22907,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -22819,7 +22931,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -22843,7 +22955,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -22867,7 +22979,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -22891,7 +23003,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -22915,7 +23027,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -22939,7 +23051,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -22963,7 +23075,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -22987,7 +23099,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -23011,7 +23123,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -23035,7 +23147,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -23059,7 +23171,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -23083,7 +23195,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -23107,7 +23219,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -23131,7 +23243,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23155,7 +23267,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23179,7 +23291,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23203,7 +23315,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23227,7 +23339,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -23251,7 +23363,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -23275,7 +23387,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -23299,7 +23411,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -23323,7 +23435,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -23347,7 +23459,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -23371,7 +23483,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -23395,7 +23507,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -23419,7 +23531,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -23443,7 +23555,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -23467,7 +23579,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -23491,7 +23603,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -23515,7 +23627,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -23539,7 +23651,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -23563,7 +23675,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -23587,7 +23699,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -23611,7 +23723,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -23635,7 +23747,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -23659,7 +23771,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -23683,7 +23795,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -23707,7 +23819,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -23731,7 +23843,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -23755,7 +23867,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -23779,7 +23891,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -23803,7 +23915,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -23827,7 +23939,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -23851,7 +23963,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -23875,7 +23987,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -23899,7 +24011,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -23923,7 +24035,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -23947,7 +24059,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -23971,7 +24083,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -23995,7 +24107,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -24019,7 +24131,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -24043,7 +24155,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -24067,7 +24179,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -24091,7 +24203,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -24115,7 +24227,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/base.xlsx
+++ b/base.xlsx
@@ -20819,7 +20819,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -21059,7 +21059,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -21515,7 +21515,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -22187,7 +22187,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
